--- a/example_receipt.xlsx
+++ b/example_receipt.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t xml:space="preserve">订单明细表</t>
   </si>
@@ -62,6 +62,33 @@
   </si>
   <si>
     <t xml:space="preserve">单价</t>
+  </si>
+  <si>
+    <t xml:space="preserve">发货方式</t>
+  </si>
+  <si>
+    <t xml:space="preserve">物流单号</t>
+  </si>
+  <si>
+    <t xml:space="preserve">物流商</t>
+  </si>
+  <si>
+    <t xml:space="preserve">商品种类</t>
+  </si>
+  <si>
+    <t xml:space="preserve">收款人联系电话</t>
+  </si>
+  <si>
+    <t xml:space="preserve">销售平台</t>
+  </si>
+  <si>
+    <t xml:space="preserve">店铺链接</t>
+  </si>
+  <si>
+    <t xml:space="preserve">商品销售链接</t>
+  </si>
+  <si>
+    <t xml:space="preserve">收货地址</t>
   </si>
 </sst>
 </file>
@@ -72,7 +99,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -113,6 +140,16 @@
       <name val="宋体"/>
       <family val="0"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="宋体"/>
+      <family val="0"/>
     </font>
   </fonts>
   <fills count="2">
@@ -180,7 +217,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -202,6 +239,14 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -226,28 +271,28 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M1048576"/>
+  <dimension ref="A1:X2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="W2" activeCellId="0" sqref="W2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="19.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="10.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="11.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="23.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="23.35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="7.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="10.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="19.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="36.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="21.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="10.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="47.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="9.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="10.99"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1025" min="14" style="0" width="9.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="47.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="9.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="13" style="0" width="10.99"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1025" min="24" style="0" width="9.12"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -266,8 +311,19 @@
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+      <c r="X1" s="3"/>
     </row>
-    <row r="2" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -307,11 +363,41 @@
       <c r="M2" s="5" t="s">
         <v>13</v>
       </c>
+      <c r="N2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="O2" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q2" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="R2" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="S2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="T2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="U2" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="V2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="W2" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="X2" s="5"/>
     </row>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="A1:W1"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
